--- a/2. hasil penelitian tanpa random state/Hasil penelitian BOPTN.xlsx
+++ b/2. hasil penelitian tanpa random state/Hasil penelitian BOPTN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\2. hasil penelitian tanpa random state\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA37D8F-3D43-4490-8204-E399F4CDBC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3B8190-C4B5-434D-9742-2EEDA8EB3431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil Awal" sheetId="1" r:id="rId1"/>
@@ -76,19 +76,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -197,95 +191,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,261 +595,261 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="27" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="27" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="16" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="9">
         <v>0.64880000000000004</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="9">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="9">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="9">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="20">
+      <c r="F5" s="5"/>
+      <c r="G5" s="10">
         <v>0.65010000000000001</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="10">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="10">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="10">
         <v>5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="6">
         <v>0.77569999999999995</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="6">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="6">
         <f>SQRT(0.0064)</f>
         <v>0.08</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="6">
         <f>4.6531/100</f>
         <v>4.6531000000000003E-2</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16">
+      <c r="F6" s="8"/>
+      <c r="G6" s="6">
         <v>0.81530000000000002</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="6">
         <f>SQRT(0.0053)</f>
         <v>7.2801098892805186E-2</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="6">
         <f>3.8508/100</f>
         <v>3.8508000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="27" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-    </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="27" t="s">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="27" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="16" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="9">
         <v>0.99990000000000001</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="9">
         <v>1.4E-3</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="9">
         <v>1.8E-3</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="9">
         <v>1.5E-3</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="20">
+      <c r="F11" s="5"/>
+      <c r="G11" s="10">
         <v>0.99990000000000001</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="10">
         <v>1.5E-3</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="10">
         <v>1.9E-3</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="10">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="6">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="6">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="6">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="16">
+      <c r="F12" s="8"/>
+      <c r="G12" s="6">
         <v>1</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="6">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="6">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="6">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
@@ -882,228 +877,293 @@
   </sheetPr>
   <dimension ref="A5:T11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="30" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="30" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="30" t="s">
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="4" t="s">
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="4" t="s">
+      <c r="K6" s="23"/>
+      <c r="L6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="4" t="s">
+      <c r="P6" s="23"/>
+      <c r="Q6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
         <v>1</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="B7" s="25">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="C7" s="25">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="D7" s="25">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="E7" s="25">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H7" s="25">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I7" s="25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J7" s="25">
+        <v>1.5E-3</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25">
+        <v>0.64729999999999999</v>
+      </c>
+      <c r="M7" s="25">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="N7" s="25">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="O7" s="25">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R7" s="25">
+        <v>1.4E-3</v>
+      </c>
+      <c r="S7" s="25">
+        <v>1.9E-3</v>
+      </c>
+      <c r="T7" s="25">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
         <v>2</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="B8" s="25">
+        <v>0.63890000000000002</v>
+      </c>
+      <c r="C8" s="25">
+        <v>3.44E-2</v>
+      </c>
+      <c r="D8" s="25">
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="E8" s="25">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H8" s="25">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I8" s="25">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J8" s="25">
+        <v>1.5E-3</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="M8" s="25">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="N8" s="25">
+        <v>9.74E-2</v>
+      </c>
+      <c r="O8" s="25">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R8" s="25">
+        <v>1.5E-3</v>
+      </c>
+      <c r="S8" s="25">
+        <v>1.9E-3</v>
+      </c>
+      <c r="T8" s="25">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>5</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1124,337 +1184,402 @@
   </sheetPr>
   <dimension ref="A5:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="30" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="30" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="30" t="s">
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="4" t="s">
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="4" t="s">
+      <c r="K6" s="23"/>
+      <c r="L6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="4" t="s">
+      <c r="P6" s="23"/>
+      <c r="Q6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
         <v>1</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="B7" s="25">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="C7" s="25">
+        <v>247.65530000000001</v>
+      </c>
+      <c r="D7" s="25">
+        <v>689.70889999999997</v>
+      </c>
+      <c r="E7" s="25">
+        <v>167.19</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H7" s="25">
+        <v>10.0099</v>
+      </c>
+      <c r="I7" s="25">
+        <v>13.2912</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25">
+        <v>0.64729999999999999</v>
+      </c>
+      <c r="M7" s="25">
+        <v>244.0513</v>
+      </c>
+      <c r="N7" s="25">
+        <v>702.39679999999998</v>
+      </c>
+      <c r="O7" s="25">
+        <v>189.93</v>
+      </c>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="29">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R7" s="29">
+        <v>10.3606</v>
+      </c>
+      <c r="S7" s="29">
+        <v>13.757099999999999</v>
+      </c>
+      <c r="T7" s="29">
+        <v>0.4652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
         <v>2</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="B8" s="25">
+        <v>0.63890000000000002</v>
+      </c>
+      <c r="C8" s="25">
+        <v>248.01079999999999</v>
+      </c>
+      <c r="D8" s="25">
+        <v>693.34829999999999</v>
+      </c>
+      <c r="E8" s="25">
+        <v>171.09</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H8" s="25">
+        <v>10.0291</v>
+      </c>
+      <c r="I8" s="25">
+        <v>13.4968</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0.44390000000000002</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="M8" s="25">
+        <v>242.88730000000001</v>
+      </c>
+      <c r="N8" s="25">
+        <v>702.72370000000001</v>
+      </c>
+      <c r="O8" s="25">
+        <v>108.3</v>
+      </c>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R8" s="25">
+        <v>10.496700000000001</v>
+      </c>
+      <c r="S8" s="25">
+        <v>13.9031</v>
+      </c>
+      <c r="T8" s="25">
+        <v>0.47439999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>5</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
